--- a/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F09D08-5319-40F2-AC0E-D4C76735A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42566B5-0555-4346-87EE-6A14CEF3AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,16 +13,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">eee!$A$1:$F$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">eee!$21:$21</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$19:$19</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$21:$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>S. #</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Regging lifting and shifitng of VRF condensing units at new location.</t>
   </si>
   <si>
-    <t>Reconnecting of power / control wire for condensing units for relocated units.</t>
-  </si>
-  <si>
     <t>29 June 2024</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>Note: Room or space required for keeping removed units with Lock and key.</t>
   </si>
   <si>
-    <t>Removal of installed indoor units service / pressure tesr of evaporator coil reassembled and reintalled after wood work.</t>
-  </si>
-  <si>
-    <t>Making new piping layout tree for Gree (copper sizing) of system.</t>
-  </si>
-  <si>
     <t>a) 1/4" Dia</t>
   </si>
   <si>
@@ -186,15 +177,6 @@
     <t>e) 3/4" Dia</t>
   </si>
   <si>
-    <t>Removal of exisitng VRF condenser exhaust air GI sheet metal ducts and reinstallation of GI sheet metal ducts with new fittings hanger &amp; supports including exhaust fans connections.</t>
-  </si>
-  <si>
-    <t>Cleaning and painting (Primer + Epoxy) existing checker plates and platform for installation of condensing units</t>
-  </si>
-  <si>
-    <t>Removal and dismantle of copper pipes power / controls cable including Regging lifting and shifitng of VRF condensing units at new location including supply and installation of newpran pads.</t>
-  </si>
-  <si>
     <t>Providing and installation of ventilation  fan 42" x 42" for fresh air (for condensing unit)</t>
   </si>
   <si>
@@ -204,27 +186,64 @@
     <t>Quote #</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Supply and installation of isolation valve for indoor units (Gas + Liquid)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note: Gree will decide to install or not.</t>
-    </r>
-  </si>
-  <si>
     <t>Quotation for Extra work to be carried out for VRF Outdoor units - Gul Ahmed 7th Floor Tijarah Center Karachi</t>
   </si>
   <si>
     <t>002</t>
+  </si>
+  <si>
+    <t>Removal of installed indoor units wall mounted / cassette type</t>
+  </si>
+  <si>
+    <t>a) Dismantle of evaporator coil from indoor unit.</t>
+  </si>
+  <si>
+    <t>b) Wash with Karchar pump</t>
+  </si>
+  <si>
+    <t>c) Pressurized with nitrogen and test leak.</t>
+  </si>
+  <si>
+    <t>d) Satisfaction of leak test reassembled evaporator coil.</t>
+  </si>
+  <si>
+    <t>e) Clean all body and related parts.</t>
+  </si>
+  <si>
+    <t>f) Reassemble with evaporator coil and assembled whole unit.</t>
+  </si>
+  <si>
+    <t>g) Reassemble with evaporator coil and assembled whole unit.</t>
+  </si>
+  <si>
+    <t>Reinstallation of wall mounted / cassette units at their new desired location.</t>
+  </si>
+  <si>
+    <t>After installation of copper piping, flushing with nitrogen and freon.</t>
+  </si>
+  <si>
+    <t>Cir</t>
+  </si>
+  <si>
+    <t>Dismantle of copper pipes, power / controls cable from VRF condensing units.</t>
+  </si>
+  <si>
+    <t>Regging, liftings and shifting of VRF condensing unit at new location.</t>
+  </si>
+  <si>
+    <t>Cleaning of checker plates and metal frame with grinder and steel brush. Painting (Primer + Epoxy) on checker plates and metal frame.</t>
+  </si>
+  <si>
+    <t>Reconnecting of power / control wires for condensing units for relocated units.</t>
+  </si>
+  <si>
+    <t>Providing and installation of motorized damper for fresh air units. 24 x 10</t>
+  </si>
+  <si>
+    <t>Providing and installation of G4 Filer for fresh air units. 24 x 10</t>
+  </si>
+  <si>
+    <t>08 Aug 2024</t>
   </si>
 </sst>
 </file>
@@ -236,7 +255,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,14 +428,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,7 +452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -501,12 +512,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -599,87 +672,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,13 +813,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>111126</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>261938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600116</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>4800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1196,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O43"/>
+  <dimension ref="A4:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1318,7 @@
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
@@ -1226,695 +1334,891 @@
   <sheetData>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55" t="s">
+    <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="H8" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="64" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+    </row>
+    <row r="19" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C21" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D21" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E21" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56">
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
         <v>1</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="56" t="s">
+      <c r="B22" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D22" s="45">
         <v>1</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E22" s="47">
         <v>0</v>
       </c>
-      <c r="F20" s="58">
-        <v>25000</v>
-      </c>
-      <c r="G20" s="58">
-        <f>E20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="58">
-        <f>F20*D20</f>
-        <v>25000</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="56">
-        <v>2</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="56">
-        <v>1</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58">
-        <v>25000</v>
-      </c>
-      <c r="G21" s="58">
-        <f>E21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="58">
-        <f>F21*D21</f>
-        <v>25000</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.3">
-      <c r="A22" s="56">
-        <v>3</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="56">
-        <v>32</v>
-      </c>
-      <c r="E22" s="58">
-        <v>0</v>
-      </c>
-      <c r="F22" s="58">
-        <v>12000</v>
-      </c>
-      <c r="G22" s="58">
+      <c r="F22" s="47">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="47">
         <f>E22*D22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="47">
         <f>F22*D22</f>
-        <v>384000</v>
+        <v>20000</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" s="72">
+        <v>2</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="69">
+        <v>20</v>
+      </c>
+      <c r="E23" s="76">
+        <v>0</v>
+      </c>
+      <c r="F23" s="76">
+        <v>12000</v>
+      </c>
+      <c r="G23" s="76">
+        <f>E23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="76">
+        <f>F23*D23</f>
+        <v>240000</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.3">
-      <c r="A23" s="56">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="73"/>
+      <c r="B24" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="73"/>
+      <c r="B25" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="73"/>
+      <c r="B26" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A27" s="73"/>
+      <c r="B27" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="73"/>
+      <c r="B29" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
+      <c r="B30" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A31" s="66">
+        <v>3</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="66">
+        <v>32</v>
+      </c>
+      <c r="E31" s="47">
+        <v>0</v>
+      </c>
+      <c r="F31" s="47">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="47">
+        <f>E31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="47">
+        <f>F31*D31</f>
+        <v>160000</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
         <v>4</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58">
-        <f t="shared" ref="G23:G32" si="0">E23*D23</f>
+      <c r="B32" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47">
+        <f t="shared" ref="G32:G42" si="0">E32*D32</f>
         <v>0</v>
       </c>
-      <c r="H23" s="58">
-        <f t="shared" ref="H23:H32" si="1">F23*D23</f>
+      <c r="H32" s="47">
+        <f t="shared" ref="H32:H42" si="1">F32*D32</f>
         <v>0</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="56">
+      <c r="I32" s="12"/>
+      <c r="J32" s="32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="45">
         <v>18</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E33" s="47">
         <v>10000</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F33" s="47">
         <v>2000</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G33" s="47">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H33" s="47">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="56">
+      <c r="I33" s="12"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="45">
         <v>7</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E34" s="47">
         <v>11280</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F34" s="47">
         <v>2000</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G34" s="47">
         <f t="shared" si="0"/>
         <v>78960</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H34" s="47">
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="56">
+      <c r="I34" s="12"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="45">
         <v>19</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E35" s="47">
         <v>11875</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F35" s="47">
         <v>2000</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G35" s="47">
         <f t="shared" si="0"/>
         <v>225625</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H35" s="47">
         <f t="shared" si="1"/>
         <v>38000</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="56">
+      <c r="I35" s="12"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="45">
         <v>7</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E36" s="47">
         <v>13125</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F36" s="47">
         <v>2000</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G36" s="47">
         <f t="shared" si="0"/>
         <v>91875</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H36" s="47">
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="56">
+      <c r="I36" s="12"/>
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="45">
         <v>1</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E37" s="47">
         <v>25625</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F37" s="47">
         <v>2000</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G37" s="47">
         <f t="shared" si="0"/>
         <v>25625</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H37" s="47">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.3">
-      <c r="A29" s="56">
+      <c r="I37" s="12"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A38" s="45">
         <v>5</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="56" t="s">
+      <c r="B38" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="45">
         <v>2</v>
       </c>
-      <c r="D29" s="56">
+      <c r="E38" s="48">
+        <v>50000</v>
+      </c>
+      <c r="F38" s="48">
+        <v>20000</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A39" s="45">
+        <v>6</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="45">
         <v>5</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59">
-        <v>15000</v>
-      </c>
-      <c r="G29" s="58">
+      <c r="E39" s="47"/>
+      <c r="F39" s="47">
+        <v>8000</v>
+      </c>
+      <c r="G39" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H39" s="47">
         <f t="shared" si="1"/>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56">
-        <v>6</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="56">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A40" s="45">
+        <v>7</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="45">
+        <v>4</v>
+      </c>
+      <c r="E40" s="47">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="47">
+        <f>E40*D40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
+        <f>F40*D40</f>
+        <v>40000</v>
+      </c>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45">
+        <v>8</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="45">
         <v>1</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="58">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56">
-        <v>7</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="56">
-        <v>1</v>
-      </c>
-      <c r="E31" s="58">
+      <c r="E41" s="47">
         <v>140000</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F41" s="47">
         <v>10000</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G41" s="47">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H41" s="47">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A32" s="56">
-        <v>8</v>
-      </c>
-      <c r="B32" s="57" t="s">
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="45">
+        <v>9</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="56">
+      <c r="D42" s="45">
         <v>60</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E42" s="47">
         <v>750</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F42" s="47">
         <v>150</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G42" s="47">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H42" s="47">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.3">
-      <c r="A33" s="56">
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.3">
+      <c r="A43" s="45">
+        <v>10</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="56">
+      <c r="D43" s="45">
         <v>1</v>
       </c>
-      <c r="E33" s="58">
-        <v>30000</v>
-      </c>
-      <c r="F33" s="58">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="58">
-        <f t="shared" ref="G33:G34" si="2">E33*D33</f>
-        <v>30000</v>
-      </c>
-      <c r="H33" s="58">
-        <f t="shared" ref="H33:H34" si="3">F33*D33</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.3">
-      <c r="A34" s="56">
-        <v>10</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="56" t="s">
+      <c r="E43" s="47">
+        <v>45000</v>
+      </c>
+      <c r="F43" s="47">
+        <v>35000</v>
+      </c>
+      <c r="G43" s="47">
+        <f t="shared" ref="G43:G46" si="2">E43*D43</f>
+        <v>45000</v>
+      </c>
+      <c r="H43" s="47">
+        <f t="shared" ref="H43:H46" si="3">F43*D43</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A44" s="45">
+        <v>11</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D44" s="45">
         <v>5</v>
       </c>
-      <c r="E34" s="58">
-        <v>15000</v>
-      </c>
-      <c r="F34" s="58">
+      <c r="E44" s="47">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="47">
         <v>5000</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G44" s="47">
         <f t="shared" si="2"/>
-        <v>75000</v>
-      </c>
-      <c r="H34" s="58">
+        <v>50000</v>
+      </c>
+      <c r="H44" s="47">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61">
-        <f>SUM(G20:G34)</f>
-        <v>892085</v>
-      </c>
-      <c r="H35" s="61">
-        <f>SUM(H20:H34)</f>
-        <v>747000</v>
-      </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60" t="s">
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A45" s="45">
+        <v>12</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="47">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="47">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="47">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="H45" s="47">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A46" s="45">
+        <v>13</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="45">
+        <v>1</v>
+      </c>
+      <c r="E46" s="47">
+        <v>80000</v>
+      </c>
+      <c r="F46" s="47">
+        <v>5000</v>
+      </c>
+      <c r="G46" s="47">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H46" s="47">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="49">
+        <f>SUM(G22:G46)</f>
+        <v>1065085</v>
+      </c>
+      <c r="H47" s="49">
+        <f>SUM(H22:H46)</f>
+        <v>729000</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63">
-        <f>G35+H35</f>
-        <v>1639085</v>
-      </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51">
+        <f>G47+H47</f>
+        <v>1794085</v>
+      </c>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="45" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="12"/>
-      <c r="M40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E41" s="8"/>
-      <c r="M41" s="2"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O43" s="12"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="12"/>
+      <c r="M52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E53" s="8"/>
+      <c r="M53" s="2"/>
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O55" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H16"/>
+  <mergeCells count="16">
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H18"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="A23:A30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="7" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="41" max="7" man="1"/>
+    <brk id="55" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1959,12 +2263,12 @@
         <v>6</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="23"/>
       <c r="E8" s="37" t="s">
@@ -1987,18 +2291,18 @@
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,14 +2319,14 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -2033,22 +2337,22 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
@@ -2091,19 +2395,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="47">
+      <c r="D22" s="38">
         <v>32</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="41">
         <v>10000</v>
       </c>
-      <c r="F22" s="50">
-        <f>E22*D22</f>
+      <c r="F22" s="41">
+        <f t="shared" ref="F22:F27" si="0">E22*D22</f>
         <v>320000</v>
       </c>
       <c r="G22" s="12"/>
@@ -2114,13 +2418,13 @@
     <row r="23" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50">
-        <f>E23*D23</f>
+        <v>27</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="12"/>
@@ -2129,19 +2433,19 @@
     <row r="24" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="38">
         <v>1</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="41">
         <v>25000</v>
       </c>
-      <c r="F24" s="50">
-        <f>E24*D24</f>
+      <c r="F24" s="41">
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="G24" s="12"/>
@@ -2150,19 +2454,19 @@
     <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="38">
         <v>1</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="41">
         <v>25000</v>
       </c>
-      <c r="F25" s="50">
-        <f>E25*D25</f>
+      <c r="F25" s="41">
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="G25" s="12"/>
@@ -2173,13 +2477,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50">
-        <f>E26*D26</f>
+        <v>30</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="32"/>
@@ -2189,19 +2493,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="48">
+      <c r="D27" s="39">
         <v>800</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="41">
         <v>6000</v>
       </c>
-      <c r="F27" s="50">
-        <f>E27*D27</f>
+      <c r="F27" s="41">
+        <f t="shared" si="0"/>
         <v>4800000</v>
       </c>
       <c r="H27" s="32"/>
@@ -2209,10 +2513,10 @@
     <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="12"/>
       <c r="H28" s="32"/>
     </row>
@@ -2223,16 +2527,16 @@
       <c r="B29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="38">
         <v>1</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="41">
         <v>1001</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="41">
         <f>E29*D29</f>
         <v>1001</v>
       </c>
@@ -2248,12 +2552,12 @@
       <c r="B30" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="50">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="41">
         <v>1002</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="41">
         <f>E30*D30</f>
         <v>0</v>
       </c>
@@ -2266,12 +2570,12 @@
       <c r="B31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="50">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="41">
         <v>1003</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="41">
         <f>E31*D31</f>
         <v>0</v>
       </c>
@@ -2284,12 +2588,12 @@
       <c r="B32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="50">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="41">
         <v>1004</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="41">
         <f>E32*D32</f>
         <v>0</v>
       </c>
@@ -2302,12 +2606,12 @@
       <c r="B35" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="50">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="41">
         <v>1009</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="41">
         <f>E35*D35</f>
         <v>0</v>
       </c>
@@ -2320,25 +2624,25 @@
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41">
         <v>1010</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="41">
         <f>E36*D36</f>
         <v>0</v>
       </c>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="35">
         <f>SUM(F29:F35)</f>
         <v>1001</v>
@@ -2346,13 +2650,13 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="36"/>
       <c r="G38" s="12"/>
     </row>
@@ -2366,23 +2670,23 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2404,12 +2708,12 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="K44" s="2"/>

--- a/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42566B5-0555-4346-87EE-6A14CEF3AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50850C6A-41BF-4938-AD4D-CA6464B23805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,16 +13,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">eee!$A$1:$F$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">eee!$21:$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$21:$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>S. #</t>
   </si>
@@ -177,9 +177,6 @@
     <t>e) 3/4" Dia</t>
   </si>
   <si>
-    <t>Providing and installation of ventilation  fan 42" x 42" for fresh air (for condensing unit)</t>
-  </si>
-  <si>
     <t>Sub Total Amount Rs</t>
   </si>
   <si>
@@ -231,16 +228,7 @@
     <t>Regging, liftings and shifting of VRF condensing unit at new location.</t>
   </si>
   <si>
-    <t>Cleaning of checker plates and metal frame with grinder and steel brush. Painting (Primer + Epoxy) on checker plates and metal frame.</t>
-  </si>
-  <si>
-    <t>Reconnecting of power / control wires for condensing units for relocated units.</t>
-  </si>
-  <si>
     <t>Providing and installation of motorized damper for fresh air units. 24 x 10</t>
-  </si>
-  <si>
-    <t>Providing and installation of G4 Filer for fresh air units. 24 x 10</t>
   </si>
   <si>
     <t>08 Aug 2024</t>
@@ -720,6 +708,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -744,6 +747,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,42 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,13 +801,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>111126</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>261938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600116</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>4800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1304,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O55"/>
+  <dimension ref="A4:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1346,20 +1334,20 @@
         <v>6</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="25"/>
       <c r="D9" s="23"/>
       <c r="F9" s="43"/>
       <c r="G9" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1372,20 +1360,20 @@
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,14 +1392,14 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1424,26 +1412,26 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+      <c r="A17" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
@@ -1495,7 +1483,7 @@
       <c r="A22" s="45">
         <v>1</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="45" t="s">
@@ -1508,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="47">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G22" s="47">
         <f>E22*D22</f>
@@ -1516,37 +1504,37 @@
       </c>
       <c r="H22" s="47">
         <f>F22*D22</f>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="72">
+      <c r="A23" s="67">
         <v>2</v>
       </c>
-      <c r="B23" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="70">
         <v>20</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="73">
         <v>0</v>
       </c>
-      <c r="F23" s="76">
-        <v>12000</v>
-      </c>
-      <c r="G23" s="76">
+      <c r="F23" s="73">
+        <v>7000</v>
+      </c>
+      <c r="G23" s="73">
         <f>E23*D23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="73">
         <f>F23*D23</f>
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="32" t="s">
@@ -1554,114 +1542,114 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
       <c r="I24" s="12"/>
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
       <c r="I25" s="12"/>
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
       <c r="I26" s="12"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
-      <c r="B27" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
       <c r="I27" s="12"/>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="12"/>
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
-      <c r="B29" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="12"/>
       <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="12"/>
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="66">
+      <c r="A31" s="55">
         <v>3</v>
       </c>
-      <c r="B31" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="66" t="s">
+      <c r="B31" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="55">
         <v>32</v>
       </c>
       <c r="E31" s="47">
@@ -1693,17 +1681,17 @@
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47">
-        <f t="shared" ref="G32:G42" si="0">E32*D32</f>
+        <f t="shared" ref="G32:G39" si="0">E32*D32</f>
         <v>0</v>
       </c>
       <c r="H32" s="47">
-        <f t="shared" ref="H32:H42" si="1">F32*D32</f>
+        <f t="shared" ref="H32:H39" si="1">F32*D32</f>
         <v>0</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46" t="s">
         <v>34</v>
@@ -1731,7 +1719,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="46" t="s">
         <v>40</v>
@@ -1759,7 +1747,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="46" t="s">
         <v>41</v>
@@ -1787,7 +1775,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="46" t="s">
         <v>42</v>
@@ -1815,7 +1803,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="46" t="s">
         <v>43</v>
@@ -1843,15 +1831,15 @@
       <c r="I37" s="12"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <v>5</v>
       </c>
       <c r="B38" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>58</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>59</v>
       </c>
       <c r="D38" s="45">
         <v>2</v>
@@ -1873,12 +1861,12 @@
       <c r="I38" s="12"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <v>6</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>2</v>
@@ -1899,12 +1887,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <v>7</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>26</v>
@@ -1916,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="47">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G40" s="47">
         <f>E40*D40</f>
@@ -1924,16 +1912,16 @@
       </c>
       <c r="H40" s="47">
         <f>F40*D40</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <v>8</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>35</v>
@@ -1942,264 +1930,122 @@
         <v>1</v>
       </c>
       <c r="E41" s="47">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="F41" s="47">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G41" s="47">
-        <f t="shared" si="0"/>
-        <v>140000</v>
+        <f t="shared" ref="G41" si="2">E41*D41</f>
+        <v>80000</v>
       </c>
       <c r="H41" s="47">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
-        <v>9</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="45">
-        <v>60</v>
-      </c>
-      <c r="E42" s="47">
-        <v>750</v>
-      </c>
-      <c r="F42" s="47">
-        <v>150</v>
-      </c>
-      <c r="G42" s="47">
-        <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="H42" s="47">
-        <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.3">
-      <c r="A43" s="45">
-        <v>10</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="45">
-        <v>1</v>
-      </c>
-      <c r="E43" s="47">
-        <v>45000</v>
-      </c>
-      <c r="F43" s="47">
-        <v>35000</v>
-      </c>
-      <c r="G43" s="47">
-        <f t="shared" ref="G43:G46" si="2">E43*D43</f>
-        <v>45000</v>
-      </c>
-      <c r="H43" s="47">
-        <f t="shared" ref="H43:H46" si="3">F43*D43</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A44" s="45">
-        <v>11</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="45">
-        <v>5</v>
-      </c>
-      <c r="E44" s="47">
-        <v>10000</v>
-      </c>
-      <c r="F44" s="47">
+        <f t="shared" ref="H41" si="3">F41*D41</f>
         <v>5000</v>
       </c>
-      <c r="G44" s="47">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="H44" s="47">
-        <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A45" s="45">
-        <v>12</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="47">
-        <v>3000</v>
-      </c>
-      <c r="F45" s="47">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="47">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="H45" s="47">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A46" s="45">
-        <v>13</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="45">
-        <v>1</v>
-      </c>
-      <c r="E46" s="47">
-        <v>80000</v>
-      </c>
-      <c r="F46" s="47">
-        <v>5000</v>
-      </c>
-      <c r="G46" s="47">
-        <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-      <c r="H46" s="47">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="49">
-        <f>SUM(G22:G46)</f>
-        <v>1065085</v>
-      </c>
-      <c r="H47" s="49">
-        <f>SUM(H22:H46)</f>
-        <v>729000</v>
-      </c>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="56" t="s">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="49">
+        <f>SUM(G22:G41)</f>
+        <v>782085</v>
+      </c>
+      <c r="H42" s="49">
+        <f>SUM(H22:H41)</f>
+        <v>524000</v>
+      </c>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="51">
-        <f>G47+H47</f>
-        <v>1794085</v>
-      </c>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="42" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51">
+        <f>G42+H42</f>
+        <v>1306085</v>
+      </c>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="54" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="12"/>
-      <c r="M52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E53" s="8"/>
-      <c r="M53" s="2"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O55" s="12"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="12"/>
+      <c r="M47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E48" s="8"/>
+      <c r="M48" s="2"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:B12"/>
@@ -2216,9 +2062,8 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="41" max="7" man="1"/>
-    <brk id="55" max="7" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2267,8 +2112,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="25"/>
       <c r="D8" s="23"/>
       <c r="E8" s="37" t="s">
@@ -2291,18 +2136,18 @@
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2319,14 +2164,14 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -2337,22 +2182,22 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
@@ -2636,13 +2481,13 @@
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="35">
         <f>SUM(F29:F35)</f>
         <v>1001</v>
@@ -2650,13 +2495,13 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="36"/>
       <c r="G38" s="12"/>
     </row>
@@ -2670,23 +2515,23 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2708,12 +2553,12 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="K44" s="2"/>

--- a/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50850C6A-41BF-4938-AD4D-CA6464B23805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BDC61-2A23-4EDB-9F32-AFF205CC6719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1700,7 @@
         <v>26</v>
       </c>
       <c r="D33" s="45">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E33" s="47">
         <v>10000</v>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="G33" s="47">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>50000</v>
       </c>
       <c r="H33" s="47">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="32"/>
@@ -1728,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="45">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E34" s="47">
         <v>11280</v>
@@ -1738,11 +1738,11 @@
       </c>
       <c r="G34" s="47">
         <f t="shared" si="0"/>
-        <v>78960</v>
+        <v>282000</v>
       </c>
       <c r="H34" s="47">
         <f t="shared" si="1"/>
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="32"/>
@@ -1756,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="45">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E35" s="47">
         <v>11875</v>
@@ -1766,11 +1766,11 @@
       </c>
       <c r="G35" s="47">
         <f t="shared" si="0"/>
-        <v>225625</v>
+        <v>59375</v>
       </c>
       <c r="H35" s="47">
         <f t="shared" si="1"/>
-        <v>38000</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="32"/>
@@ -1784,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="45">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E36" s="47">
         <v>13125</v>
@@ -1794,11 +1794,11 @@
       </c>
       <c r="G36" s="47">
         <f t="shared" si="0"/>
-        <v>91875</v>
+        <v>288750</v>
       </c>
       <c r="H36" s="47">
         <f t="shared" si="1"/>
-        <v>14000</v>
+        <v>44000</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="32"/>
@@ -1812,7 +1812,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="47">
         <v>25625</v>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="G37" s="47">
         <f t="shared" si="0"/>
-        <v>25625</v>
+        <v>76875</v>
       </c>
       <c r="H37" s="47">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="32"/>
@@ -1955,11 +1955,11 @@
       <c r="F42" s="61"/>
       <c r="G42" s="49">
         <f>SUM(G22:G41)</f>
-        <v>782085</v>
+        <v>937000</v>
       </c>
       <c r="H42" s="49">
         <f>SUM(H22:H41)</f>
-        <v>524000</v>
+        <v>540000</v>
       </c>
       <c r="I42" s="12"/>
     </row>
@@ -1975,7 +1975,7 @@
       <c r="G43" s="50"/>
       <c r="H43" s="51">
         <f>G42+H42</f>
-        <v>1306085</v>
+        <v>1477000</v>
       </c>
       <c r="I43" s="12"/>
     </row>

--- a/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/02 Variation for copper pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BDC61-2A23-4EDB-9F32-AFF205CC6719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D7B5A3-D589-4112-867F-9C98FB9E6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,16 +13,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">eee!$A$1:$F$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">eee!$21:$21</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$21:$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$23:$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>S. #</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Rft</t>
   </si>
   <si>
-    <t>Note: Room or space required for keeping removed units with Lock and key.</t>
-  </si>
-  <si>
     <t>a) 1/4" Dia</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Quote #</t>
   </si>
   <si>
-    <t>Quotation for Extra work to be carried out for VRF Outdoor units - Gul Ahmed 7th Floor Tijarah Center Karachi</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
@@ -216,34 +210,63 @@
     <t>Reinstallation of wall mounted / cassette units at their new desired location.</t>
   </si>
   <si>
-    <t>After installation of copper piping, flushing with nitrogen and freon.</t>
-  </si>
-  <si>
-    <t>Cir</t>
-  </si>
-  <si>
     <t>Dismantle of copper pipes, power / controls cable from VRF condensing units.</t>
   </si>
   <si>
     <t>Regging, liftings and shifting of VRF condensing unit at new location.</t>
   </si>
   <si>
-    <t>Providing and installation of motorized damper for fresh air units. 24 x 10</t>
-  </si>
-  <si>
-    <t>08 Aug 2024</t>
+    <t>Sft</t>
+  </si>
+  <si>
+    <t>Note: (for item # 4)
+Please note that in the BOQ the new copper pipe rates were submitted with the old Y-joints and valves. However, during several meetings, it was decided to replace the old leaking valves with new ones. Accordingly, we installed the new valves as per the decision.</t>
+  </si>
+  <si>
+    <t>Supply and installation of Fresh air tube axial fan wall mounted (7500 CFM) (Make BVN)</t>
+  </si>
+  <si>
+    <t>Supply and installation of exhaust air wall mounted fan (10000 CFM) (Make BVN)</t>
+  </si>
+  <si>
+    <t>Providing and installation of motorized damper for fresh air units. 24 x 10 (Make Hoenywell)</t>
+  </si>
+  <si>
+    <t>After installation of copper piping, flushing with nitrogen and freon.  (Honeywell)</t>
+  </si>
+  <si>
+    <t>Supply and installation of isolation valve for indoor units (Gas + Liquid) (Make Danfoss)</t>
+  </si>
+  <si>
+    <t>Supply and installation of exhaust air ducting. (20 SWG)</t>
+  </si>
+  <si>
+    <t>Removal of existing fan motor, serviced, replaced with new motor (Siemens) and re installation complete in all respect.</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>10 Jan 2025</t>
+  </si>
+  <si>
+    <t>Variation for Extra work carried out for VRF Outdoor units - Gul Ahmed 7th Floor Tijarah Center Karachi</t>
+  </si>
+  <si>
+    <t>Providing and installation of electric cables and conduit for the fans.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,15 +416,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -567,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -684,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,37 +710,44 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -800,15 +821,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>111126</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>261938</xdr:rowOff>
+      <xdr:colOff>196851</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>600116</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4800</xdr:rowOff>
+      <xdr:colOff>685841</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>214350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -837,7 +858,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="111126" y="10406063"/>
+          <a:off x="196851" y="14578013"/>
           <a:ext cx="774740" cy="723937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1292,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O50"/>
+  <dimension ref="A4:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1309,8 +1330,8 @@
     <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="1"/>
@@ -1324,449 +1345,395 @@
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44" t="s">
+    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44" t="s">
+      <c r="H10" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+    </row>
+    <row r="21" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B23" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C23" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E23" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="G23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="H23" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+    </row>
+    <row r="24" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45">
         <v>1</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B24" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D24" s="45">
         <v>1</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F24" s="47">
         <v>15000</v>
       </c>
-      <c r="G22" s="47">
-        <f>E22*D22</f>
+      <c r="G24" s="47">
+        <f>E24*D24</f>
         <v>0</v>
       </c>
-      <c r="H22" s="47">
-        <f>F22*D22</f>
+      <c r="H24" s="47">
+        <f>F24*D24</f>
         <v>15000</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="67">
-        <v>2</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="70">
-        <v>20</v>
-      </c>
-      <c r="E23" s="73">
-        <v>0</v>
-      </c>
-      <c r="F23" s="73">
-        <v>7000</v>
-      </c>
-      <c r="G23" s="73">
-        <f>E23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="73">
-        <f>F23*D23</f>
-        <v>140000</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
       <c r="I24" s="12"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A25" s="70">
+        <v>2</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="73">
+        <v>20</v>
+      </c>
+      <c r="E25" s="76">
+        <v>0</v>
+      </c>
+      <c r="F25" s="76">
+        <v>7000</v>
+      </c>
+      <c r="G25" s="76">
+        <f>E25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="76">
+        <f>F25*D25</f>
+        <v>140000</v>
+      </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="32" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+        <v>47</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="12"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="71"/>
       <c r="B27" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
+        <v>48</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="12"/>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
+        <v>49</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="12"/>
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
+        <v>50</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="12"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="71"/>
+      <c r="B30" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="12"/>
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="55">
-        <v>3</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="55">
-        <v>32</v>
-      </c>
-      <c r="E31" s="47">
-        <v>0</v>
-      </c>
-      <c r="F31" s="47">
-        <v>5000</v>
-      </c>
-      <c r="G31" s="47">
-        <f>E31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="47">
-        <f>F31*D31</f>
-        <v>160000</v>
-      </c>
+      <c r="A31" s="71"/>
+      <c r="B31" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="12"/>
       <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A32" s="45">
-        <v>4</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47">
-        <f t="shared" ref="G32:G39" si="0">E32*D32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="47">
-        <f t="shared" ref="H32:H39" si="1">F32*D32</f>
-        <v>0</v>
-      </c>
+      <c r="A32" s="72"/>
+      <c r="B32" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="12"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="45" t="s">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A33" s="55">
+        <v>3</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="55">
+        <v>32</v>
+      </c>
+      <c r="E33" s="47">
+        <v>0</v>
+      </c>
+      <c r="F33" s="47">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="47">
+        <f>E33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="47">
+        <f>F33*D33</f>
+        <v>160000</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
+        <v>4</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47">
+        <f t="shared" ref="G34:G46" si="0">E34*D34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" ref="H34:H46" si="1">F34*D34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="45">
         <v>5</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E35" s="47">
         <v>10000</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F35" s="47">
         <v>2000</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G35" s="47">
         <f t="shared" si="0"/>
         <v>50000</v>
-      </c>
-      <c r="H33" s="47">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="45">
-        <v>25</v>
-      </c>
-      <c r="E34" s="47">
-        <v>11280</v>
-      </c>
-      <c r="F34" s="47">
-        <v>2000</v>
-      </c>
-      <c r="G34" s="47">
-        <f t="shared" si="0"/>
-        <v>282000</v>
-      </c>
-      <c r="H34" s="47">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="45">
-        <v>5</v>
-      </c>
-      <c r="E35" s="47">
-        <v>11875</v>
-      </c>
-      <c r="F35" s="47">
-        <v>2000</v>
-      </c>
-      <c r="G35" s="47">
-        <f t="shared" si="0"/>
-        <v>59375</v>
       </c>
       <c r="H35" s="47">
         <f t="shared" si="1"/>
@@ -1775,295 +1742,546 @@
       <c r="I35" s="12"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="45">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E36" s="47">
-        <v>13125</v>
+        <v>11280</v>
       </c>
       <c r="F36" s="47">
         <v>2000</v>
       </c>
       <c r="G36" s="47">
         <f t="shared" si="0"/>
-        <v>288750</v>
+        <v>282000</v>
       </c>
       <c r="H36" s="47">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D37" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="47">
-        <v>25625</v>
+        <v>11875</v>
       </c>
       <c r="F37" s="47">
         <v>2000</v>
       </c>
       <c r="G37" s="47">
         <f t="shared" si="0"/>
-        <v>76875</v>
+        <v>59375</v>
       </c>
       <c r="H37" s="47">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.3">
-      <c r="A38" s="45">
-        <v>5</v>
-      </c>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
       <c r="B38" s="46" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D38" s="45">
-        <v>2</v>
-      </c>
-      <c r="E38" s="48">
-        <v>50000</v>
-      </c>
-      <c r="F38" s="48">
-        <v>20000</v>
+        <v>22</v>
+      </c>
+      <c r="E38" s="47">
+        <v>13125</v>
+      </c>
+      <c r="F38" s="47">
+        <v>2000</v>
       </c>
       <c r="G38" s="47">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>288750</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.3">
-      <c r="A39" s="45">
-        <v>6</v>
-      </c>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
       <c r="B39" s="46" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D39" s="45">
-        <v>5</v>
-      </c>
-      <c r="E39" s="47"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="47">
+        <v>25625</v>
+      </c>
       <c r="F39" s="47">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76875</v>
       </c>
       <c r="H39" s="47">
         <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="45">
-        <v>4</v>
-      </c>
-      <c r="E40" s="47">
-        <v>0</v>
-      </c>
-      <c r="F40" s="47">
-        <v>5000</v>
+        <v>2</v>
+      </c>
+      <c r="E40" s="48">
+        <v>601800</v>
+      </c>
+      <c r="F40" s="48">
+        <v>30000</v>
       </c>
       <c r="G40" s="47">
-        <f>E40*D40</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1203600</v>
       </c>
       <c r="H40" s="47">
-        <f>F40*D40</f>
-        <v>20000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="I40" s="12"/>
       <c r="J40" s="32"/>
-    </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="K40" s="59"/>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D41" s="45">
         <v>1</v>
       </c>
-      <c r="E41" s="47">
-        <v>80000</v>
-      </c>
-      <c r="F41" s="47">
+      <c r="E41" s="48">
+        <v>395300</v>
+      </c>
+      <c r="F41" s="48">
+        <v>35000</v>
+      </c>
+      <c r="G41" s="47">
+        <f t="shared" si="0"/>
+        <v>395300</v>
+      </c>
+      <c r="H41" s="47">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="45">
+        <v>7</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="45">
+        <v>1</v>
+      </c>
+      <c r="E42" s="48">
+        <v>50000</v>
+      </c>
+      <c r="F42" s="48">
+        <v>30000</v>
+      </c>
+      <c r="G42" s="47">
+        <f t="shared" ref="G42" si="2">E42*D42</f>
+        <v>50000</v>
+      </c>
+      <c r="H42" s="47">
+        <f t="shared" ref="H42" si="3">F42*D42</f>
+        <v>30000</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45">
+        <v>8</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="45">
+        <v>250</v>
+      </c>
+      <c r="E43" s="47">
+        <v>500</v>
+      </c>
+      <c r="F43" s="47">
+        <v>100</v>
+      </c>
+      <c r="G43" s="47">
+        <f t="shared" ref="G43:G44" si="4">E43*D43</f>
+        <v>125000</v>
+      </c>
+      <c r="H43" s="47">
+        <f t="shared" ref="H43:H44" si="5">F43*D43</f>
+        <v>25000</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45">
+        <v>9</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="45">
+        <v>1</v>
+      </c>
+      <c r="E44" s="47">
+        <v>108011</v>
+      </c>
+      <c r="F44" s="47">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="47">
+        <f t="shared" si="4"/>
+        <v>108011</v>
+      </c>
+      <c r="H44" s="47">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A45" s="45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="48">
+        <v>57230</v>
+      </c>
+      <c r="F45" s="48">
+        <v>20000</v>
+      </c>
+      <c r="G45" s="47">
+        <f t="shared" si="0"/>
+        <v>114460</v>
+      </c>
+      <c r="H45" s="47">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="59"/>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A46" s="45">
+        <v>11</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="45">
+        <v>5</v>
+      </c>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47">
+        <v>8000</v>
+      </c>
+      <c r="G46" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="47">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A47" s="45">
+        <v>12</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="45">
+        <v>4</v>
+      </c>
+      <c r="E47" s="47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="47">
         <v>5000</v>
       </c>
-      <c r="G41" s="47">
-        <f t="shared" ref="G41" si="2">E41*D41</f>
-        <v>80000</v>
-      </c>
-      <c r="H41" s="47">
-        <f t="shared" ref="H41" si="3">F41*D41</f>
+      <c r="G47" s="47">
+        <f>E47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="47">
+        <f>F47*D47</f>
+        <v>20000</v>
+      </c>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A48" s="45">
+        <v>13</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="45">
+        <v>1</v>
+      </c>
+      <c r="E48" s="47">
+        <f>72000+10195</f>
+        <v>82195</v>
+      </c>
+      <c r="F48" s="47">
         <v>5000</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="49">
-        <f>SUM(G22:G41)</f>
-        <v>937000</v>
-      </c>
-      <c r="H42" s="49">
-        <f>SUM(H22:H41)</f>
-        <v>540000</v>
-      </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
+      <c r="G48" s="47">
+        <f t="shared" ref="G48" si="6">E48*D48</f>
+        <v>82195</v>
+      </c>
+      <c r="H48" s="47">
+        <f t="shared" ref="H48" si="7">F48*D48</f>
+        <v>5000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8640</v>
+      </c>
+      <c r="J48" s="1">
+        <f>I48*1.18</f>
+        <v>10195.199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="49">
+        <f>SUM(G24:G48)</f>
+        <v>2835566</v>
+      </c>
+      <c r="H49" s="49">
+        <f>SUM(H24:H48)</f>
+        <v>700000</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="51">
-        <f>G42+H42</f>
-        <v>1477000</v>
-      </c>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="59" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51">
+        <f>G49+H49</f>
+        <v>3535566</v>
+      </c>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="12"/>
-      <c r="M47" s="2"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E48" s="8"/>
-      <c r="M48" s="2"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O50" s="12"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="12"/>
+      <c r="M57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E58" s="8"/>
+      <c r="M58" s="2"/>
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O60" s="12"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A52:H55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="A25:A32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="7" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="43" max="7" man="1"/>
+    <brk id="60" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2112,8 +2330,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25"/>
       <c r="D8" s="23"/>
       <c r="E8" s="37" t="s">
@@ -2136,18 +2354,18 @@
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2164,14 +2382,14 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -2182,22 +2400,22 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
     </row>
     <row r="19" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
@@ -2481,13 +2699,13 @@
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="35">
         <f>SUM(F29:F35)</f>
         <v>1001</v>
@@ -2495,13 +2713,13 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="36"/>
       <c r="G38" s="12"/>
     </row>
@@ -2515,23 +2733,23 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,12 +2771,12 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="K44" s="2"/>
